--- a/Lab/02/Python/приложение_Алисы/приложение_Алисы/data.xlsx
+++ b/Lab/02/Python/приложение_Алисы/приложение_Алисы/data.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,25 +26,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F8F8F8"/>
-        <bgColor rgb="F0F8F8F8"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -53,30 +44,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -86,10 +67,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +440,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -471,34 +452,33 @@
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
     <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="32.28515625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>№</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>время.дата покупки</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Заказ</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Цена заказа
-(тугрики)</t>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Цена заказа\n(тугрики)</t>
         </is>
       </c>
     </row>
@@ -513,47 +493,67 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>14/12/2020 19:05:48</t>
+          <t>16/12/2020 08:13:30</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>чебупели</t>
+          <t>ламбу</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8800</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:16:55</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>чивапчичи</t>
+          <t>ламбу</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>150</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:19:27</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>чивапчичи</t>
+          <t>ламбу</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>150</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -562,52 +562,266 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14/12/2020 19:06:00</t>
+          <t>16/12/2020 08:23:12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>чебупели</t>
+          <t>ламбу</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>8800</v>
+        <v>99999</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:27:55</t>
+        </is>
+      </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>ламбу</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:29:41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>чивапчичи</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:34:17</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>чивапчичи</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>150</v>
+      <c r="E8" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:37:13</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>чегонибудь</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:42:26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>чегонибудь</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:42:50</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>чегонибудь</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:50:39</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>чегонибудь</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:52:30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>ламбу</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>4A469084FBF1D44FC96F7E76881B2CBD22515DAB58F6714B153DB1F4CC769517</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16/12/2020 08:52:48</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>ламбу</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
+  <mergeCells count="39">
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="C2"/>
+    <mergeCell ref="A3"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="A4"/>
+    <mergeCell ref="B4"/>
+    <mergeCell ref="C4"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="B6"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="B7"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="B8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="B12"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="A13"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="A14"/>
+    <mergeCell ref="B14"/>
+    <mergeCell ref="C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
